--- a/spec/0.1/samples/sample/data/pics/CATALOG_pics.xlsx
+++ b/spec/0.1/samples/sample/data/pics/CATALOG_pics.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Files" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Collection" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Files" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -71,56 +70,56 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF0000FF"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -128,83 +127,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100">
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78571428571429"/>
+    <col customWidth="1" max="1" min="1" style="2" width="11.5816326530612"/>
+    <col customWidth="1" max="2" min="2" style="2" width="14.7755102040816"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="8.78571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customFormat="1" customHeight="1" ht="13" r="1" s="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -212,59 +475,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="13" r="2" s="5" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="13" r="3" s="5" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="13" r="4" s="5" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="D1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F4" activeCellId="0" pane="topLeft" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.015306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78571428571429"/>
+    <col customWidth="1" max="1" min="1" style="2" width="51.8367346938776"/>
+    <col customWidth="1" max="2" min="2" style="2" width="11.5204081632653"/>
+    <col customWidth="1" max="3" min="3" style="2" width="18.015306122449"/>
+    <col customWidth="1" max="4" min="4" style="2" width="19.5"/>
+    <col customWidth="1" max="1025" min="5" style="2" width="8.78571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customFormat="1" customHeight="1" ht="12.8" r="1" s="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -281,34 +541,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="5" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="6" s="5" spans="1:5"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="FILE:Filename"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="FILE:Filename" ref="A1" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>